--- a/Dataset_Limpio/Hoja13_DIAL BAf.xlsx
+++ b/Dataset_Limpio/Hoja13_DIAL BAf.xlsx
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B3" t="n">
         <v>2024</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="B4" t="n">
         <v>2024</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B5" t="n">
         <v>2024</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B6" t="n">
         <v>2024</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="B7" t="n">
         <v>2024</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B8" t="n">
         <v>2024</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="B9" t="n">
         <v>2024</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45292</v>
+        <v>45300</v>
       </c>
       <c r="B10" t="n">
         <v>2024</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45292</v>
+        <v>45301</v>
       </c>
       <c r="B11" t="n">
         <v>2024</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45292</v>
+        <v>45302</v>
       </c>
       <c r="B12" t="n">
         <v>2024</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45292</v>
+        <v>45303</v>
       </c>
       <c r="B13" t="n">
         <v>2024</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45292</v>
+        <v>45304</v>
       </c>
       <c r="B14" t="n">
         <v>2024</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45292</v>
+        <v>45305</v>
       </c>
       <c r="B15" t="n">
         <v>2024</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45292</v>
+        <v>45306</v>
       </c>
       <c r="B16" t="n">
         <v>2024</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45292</v>
+        <v>45307</v>
       </c>
       <c r="B17" t="n">
         <v>2024</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45292</v>
+        <v>45308</v>
       </c>
       <c r="B18" t="n">
         <v>2024</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45292</v>
+        <v>45309</v>
       </c>
       <c r="B19" t="n">
         <v>2024</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45292</v>
+        <v>45310</v>
       </c>
       <c r="B20" t="n">
         <v>2024</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45292</v>
+        <v>45311</v>
       </c>
       <c r="B21" t="n">
         <v>2024</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45292</v>
+        <v>45312</v>
       </c>
       <c r="B22" t="n">
         <v>2024</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45292</v>
+        <v>45313</v>
       </c>
       <c r="B23" t="n">
         <v>2024</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45292</v>
+        <v>45314</v>
       </c>
       <c r="B24" t="n">
         <v>2024</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45292</v>
+        <v>45315</v>
       </c>
       <c r="B25" t="n">
         <v>2024</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45200</v>
+        <v>45224</v>
       </c>
       <c r="B26" t="n">
         <v>2023</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45200</v>
+        <v>45225</v>
       </c>
       <c r="B27" t="n">
         <v>2023</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45200</v>
+        <v>45226</v>
       </c>
       <c r="B28" t="n">
         <v>2023</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45200</v>
+        <v>45227</v>
       </c>
       <c r="B29" t="n">
         <v>2023</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45200</v>
+        <v>45228</v>
       </c>
       <c r="B30" t="n">
         <v>2023</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45200</v>
+        <v>45229</v>
       </c>
       <c r="B31" t="n">
         <v>2023</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B32" t="n">
         <v>2023</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B33" t="n">
         <v>2023</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B34" t="n">
         <v>2023</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B35" t="n">
         <v>2023</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B36" t="n">
         <v>2023</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B37" t="n">
         <v>2023</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B38" t="n">
         <v>2023</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B39" t="n">
         <v>2023</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B40" t="n">
         <v>2023</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B41" t="n">
         <v>2023</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B42" t="n">
         <v>2023</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B43" t="n">
         <v>2023</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B44" t="n">
         <v>2023</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B45" t="n">
         <v>2023</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B46" t="n">
         <v>2023</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B47" t="n">
         <v>2023</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B48" t="n">
         <v>2023</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B49" t="n">
         <v>2023</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B50" t="n">
         <v>2023</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B51" t="n">
         <v>2023</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B52" t="n">
         <v>2023</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B53" t="n">
         <v>2023</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B54" t="n">
         <v>2023</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B55" t="n">
         <v>2023</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B56" t="n">
         <v>2023</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B57" t="n">
         <v>2023</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B58" t="n">
         <v>2023</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B59" t="n">
         <v>2023</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B60" t="n">
         <v>2023</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B61" t="n">
         <v>2023</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B62" t="n">
         <v>2023</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B63" t="n">
         <v>2023</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B64" t="n">
         <v>2023</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B65" t="n">
         <v>2023</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B66" t="n">
         <v>2023</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B67" t="n">
         <v>2023</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B68" t="n">
         <v>2023</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B69" t="n">
         <v>2023</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B70" t="n">
         <v>2023</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B71" t="n">
         <v>2023</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B72" t="n">
         <v>2023</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B73" t="n">
         <v>2023</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B74" t="n">
         <v>2023</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B75" t="n">
         <v>2023</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B76" t="n">
         <v>2023</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B77" t="n">
         <v>2023</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B78" t="n">
         <v>2023</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" t="n">
         <v>2023</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B80" t="n">
         <v>2023</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B81" t="n">
         <v>2023</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B82" t="n">
         <v>2023</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B83" t="n">
         <v>2023</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B84" t="n">
         <v>2023</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B85" t="n">
         <v>2023</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B86" t="n">
         <v>2023</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B87" t="n">
         <v>2023</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B88" t="n">
         <v>2023</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B89" t="n">
         <v>2023</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B90" t="n">
         <v>2023</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B91" t="n">
         <v>2023</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B92" t="n">
         <v>2023</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B93" t="n">
         <v>2023</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B94" t="n">
         <v>2023</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B95" t="n">
         <v>2023</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B96" t="n">
         <v>2023</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B97" t="n">
         <v>2023</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B98" t="n">
         <v>2023</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B99" t="n">
         <v>2023</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B100" t="n">
         <v>2023</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B101" t="n">
         <v>2023</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B102" t="n">
         <v>2023</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B103" t="n">
         <v>2023</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B104" t="n">
         <v>2023</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B105" t="n">
         <v>2023</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B106" t="n">
         <v>2023</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B107" t="n">
         <v>2023</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B108" t="n">
         <v>2023</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B109" t="n">
         <v>2023</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B110" t="n">
         <v>2023</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B111" t="n">
         <v>2023</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B112" t="n">
         <v>2023</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B113" t="n">
         <v>2023</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B114" t="n">
         <v>2023</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B115" t="n">
         <v>2023</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B116" t="n">
         <v>2023</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B117" t="n">
         <v>2023</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B118" t="n">
         <v>2023</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B119" t="n">
         <v>2023</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B120" t="n">
         <v>2023</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B121" t="n">
         <v>2023</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B122" t="n">
         <v>2022</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B123" t="n">
         <v>2022</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B124" t="n">
         <v>2022</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B125" t="n">
         <v>2022</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B126" t="n">
         <v>2022</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B127" t="n">
         <v>2022</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B128" t="n">
         <v>2022</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B129" t="n">
         <v>2022</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B130" t="n">
         <v>2022</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B131" t="n">
         <v>2022</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B132" t="n">
         <v>2022</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
         <v>2022</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B134" t="n">
         <v>2022</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B135" t="n">
         <v>2022</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B136" t="n">
         <v>2022</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B137" t="n">
         <v>2022</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B138" t="n">
         <v>2022</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B139" t="n">
         <v>2022</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B140" t="n">
         <v>2022</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B141" t="n">
         <v>2022</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B142" t="n">
         <v>2022</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B143" t="n">
         <v>2022</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B144" t="n">
         <v>2022</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B145" t="n">
         <v>2022</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B146" t="n">
         <v>2022</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B147" t="n">
         <v>2022</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B148" t="n">
         <v>2022</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B149" t="n">
         <v>2022</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B150" t="n">
         <v>2022</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B151" t="n">
         <v>2022</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B152" t="n">
         <v>2022</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B153" t="n">
         <v>2022</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B154" t="n">
         <v>2022</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B155" t="n">
         <v>2022</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B156" t="n">
         <v>2022</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B157" t="n">
         <v>2022</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B158" t="n">
         <v>2022</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B159" t="n">
         <v>2022</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B160" t="n">
         <v>2022</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B161" t="n">
         <v>2022</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B162" t="n">
         <v>2022</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B163" t="n">
         <v>2022</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B164" t="n">
         <v>2022</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B165" t="n">
         <v>2022</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B166" t="n">
         <v>2022</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B167" t="n">
         <v>2022</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B168" t="n">
         <v>2022</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B169" t="n">
         <v>2022</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B170" t="n">
         <v>2022</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B171" t="n">
         <v>2022</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B172" t="n">
         <v>2022</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B173" t="n">
         <v>2022</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B174" t="n">
         <v>2022</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B175" t="n">
         <v>2022</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B176" t="n">
         <v>2022</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B177" t="n">
         <v>2022</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B178" t="n">
         <v>2022</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B179" t="n">
         <v>2022</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B180" t="n">
         <v>2022</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B181" t="n">
         <v>2022</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B182" t="n">
         <v>2022</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B183" t="n">
         <v>2022</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B184" t="n">
         <v>2022</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B185" t="n">
         <v>2022</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B186" t="n">
         <v>2022</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B187" t="n">
         <v>2022</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B188" t="n">
         <v>2022</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B189" t="n">
         <v>2022</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B190" t="n">
         <v>2022</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B191" t="n">
         <v>2022</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B192" t="n">
         <v>2022</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B193" t="n">
         <v>2022</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B194" t="n">
         <v>2022</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B195" t="n">
         <v>2022</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B196" t="n">
         <v>2022</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B197" t="n">
         <v>2022</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B198" t="n">
         <v>2022</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B199" t="n">
         <v>2022</v>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B200" t="n">
         <v>2022</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B201" t="n">
         <v>2022</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B202" t="n">
         <v>2022</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B203" t="n">
         <v>2022</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B204" t="n">
         <v>2022</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B205" t="n">
         <v>2022</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B206" t="n">
         <v>2022</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B207" t="n">
         <v>2022</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B208" t="n">
         <v>2022</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B209" t="n">
         <v>2022</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B210" t="n">
         <v>2022</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B211" t="n">
         <v>2022</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B212" t="n">
         <v>2022</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B213" t="n">
         <v>2022</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B214" t="n">
         <v>2022</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B215" t="n">
         <v>2022</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B216" t="n">
         <v>2022</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B217" t="n">
         <v>2022</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B218" t="n">
         <v>2021</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B219" t="n">
         <v>2021</v>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B220" t="n">
         <v>2021</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B221" t="n">
         <v>2021</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B222" t="n">
         <v>2021</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B223" t="n">
         <v>2021</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B224" t="n">
         <v>2021</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B225" t="n">
         <v>2021</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B226" t="n">
         <v>2021</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B227" t="n">
         <v>2021</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B228" t="n">
         <v>2021</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B229" t="n">
         <v>2021</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B230" t="n">
         <v>2021</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B231" t="n">
         <v>2021</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B232" t="n">
         <v>2021</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B233" t="n">
         <v>2021</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B234" t="n">
         <v>2021</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B235" t="n">
         <v>2021</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B236" t="n">
         <v>2021</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B237" t="n">
         <v>2021</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B238" t="n">
         <v>2021</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B239" t="n">
         <v>2021</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B240" t="n">
         <v>2021</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B241" t="n">
         <v>2021</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B242" t="n">
         <v>2021</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B243" t="n">
         <v>2021</v>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B244" t="n">
         <v>2021</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B245" t="n">
         <v>2021</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B246" t="n">
         <v>2021</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B247" t="n">
         <v>2021</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B248" t="n">
         <v>2021</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B249" t="n">
         <v>2021</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B250" t="n">
         <v>2021</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B251" t="n">
         <v>2021</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B252" t="n">
         <v>2021</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B253" t="n">
         <v>2021</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B254" t="n">
         <v>2021</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B255" t="n">
         <v>2021</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B256" t="n">
         <v>2021</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B257" t="n">
         <v>2021</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B258" t="n">
         <v>2021</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B259" t="n">
         <v>2021</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B260" t="n">
         <v>2021</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B261" t="n">
         <v>2021</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B262" t="n">
         <v>2021</v>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B263" t="n">
         <v>2021</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B264" t="n">
         <v>2021</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B265" t="n">
         <v>2021</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B266" t="n">
         <v>2021</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B267" t="n">
         <v>2021</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B268" t="n">
         <v>2021</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B269" t="n">
         <v>2021</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B270" t="n">
         <v>2021</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B271" t="n">
         <v>2021</v>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B272" t="n">
         <v>2021</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B273" t="n">
         <v>2021</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B274" t="n">
         <v>2021</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B275" t="n">
         <v>2021</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B276" t="n">
         <v>2021</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B277" t="n">
         <v>2021</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B278" t="n">
         <v>2021</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B279" t="n">
         <v>2021</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B280" t="n">
         <v>2021</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B281" t="n">
         <v>2021</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B282" t="n">
         <v>2021</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B283" t="n">
         <v>2021</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B284" t="n">
         <v>2021</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B285" t="n">
         <v>2021</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B286" t="n">
         <v>2021</v>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B287" t="n">
         <v>2021</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B288" t="n">
         <v>2021</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B289" t="n">
         <v>2021</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B290" t="n">
         <v>2021</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B291" t="n">
         <v>2021</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B292" t="n">
         <v>2021</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B293" t="n">
         <v>2021</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B294" t="n">
         <v>2021</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B295" t="n">
         <v>2021</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B296" t="n">
         <v>2021</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B297" t="n">
         <v>2021</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B298" t="n">
         <v>2021</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B299" t="n">
         <v>2021</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B300" t="n">
         <v>2021</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B301" t="n">
         <v>2021</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B302" t="n">
         <v>2021</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B303" t="n">
         <v>2021</v>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B304" t="n">
         <v>2021</v>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B305" t="n">
         <v>2021</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B306" t="n">
         <v>2021</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B307" t="n">
         <v>2021</v>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B308" t="n">
         <v>2021</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B309" t="n">
         <v>2021</v>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B310" t="n">
         <v>2021</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B311" t="n">
         <v>2021</v>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B312" t="n">
         <v>2021</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B313" t="n">
         <v>2021</v>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B314" t="n">
         <v>2020</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B315" t="n">
         <v>2020</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B316" t="n">
         <v>2020</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B317" t="n">
         <v>2020</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B318" t="n">
         <v>2020</v>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B319" t="n">
         <v>2020</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B320" t="n">
         <v>2020</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B321" t="n">
         <v>2020</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B322" t="n">
         <v>2020</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B323" t="n">
         <v>2020</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B324" t="n">
         <v>2020</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B325" t="n">
         <v>2020</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B326" t="n">
         <v>2020</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B327" t="n">
         <v>2020</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B328" t="n">
         <v>2020</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B329" t="n">
         <v>2020</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B330" t="n">
         <v>2020</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B331" t="n">
         <v>2020</v>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B332" t="n">
         <v>2020</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B333" t="n">
         <v>2020</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B334" t="n">
         <v>2020</v>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B335" t="n">
         <v>2020</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B336" t="n">
         <v>2020</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B337" t="n">
         <v>2020</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B338" t="n">
         <v>2020</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B339" t="n">
         <v>2020</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B340" t="n">
         <v>2020</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B341" t="n">
         <v>2020</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B342" t="n">
         <v>2020</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B343" t="n">
         <v>2020</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B344" t="n">
         <v>2020</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B345" t="n">
         <v>2020</v>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B346" t="n">
         <v>2020</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B347" t="n">
         <v>2020</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B348" t="n">
         <v>2020</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B349" t="n">
         <v>2020</v>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B350" t="n">
         <v>2020</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B351" t="n">
         <v>2020</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B352" t="n">
         <v>2020</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B353" t="n">
         <v>2020</v>
@@ -9278,7 +9278,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B354" t="n">
         <v>2020</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B355" t="n">
         <v>2020</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B356" t="n">
         <v>2020</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B357" t="n">
         <v>2020</v>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B358" t="n">
         <v>2020</v>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B359" t="n">
         <v>2020</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B360" t="n">
         <v>2020</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B361" t="n">
         <v>2020</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B362" t="n">
         <v>2020</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B363" t="n">
         <v>2020</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B364" t="n">
         <v>2020</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B365" t="n">
         <v>2020</v>
@@ -9578,7 +9578,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B366" t="n">
         <v>2020</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B367" t="n">
         <v>2020</v>
@@ -9628,7 +9628,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B368" t="n">
         <v>2020</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B369" t="n">
         <v>2020</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B370" t="n">
         <v>2020</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B371" t="n">
         <v>2020</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B372" t="n">
         <v>2020</v>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B373" t="n">
         <v>2020</v>
@@ -9778,7 +9778,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B374" t="n">
         <v>2020</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B375" t="n">
         <v>2020</v>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B376" t="n">
         <v>2020</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B377" t="n">
         <v>2020</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B378" t="n">
         <v>2020</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B379" t="n">
         <v>2020</v>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B380" t="n">
         <v>2020</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B381" t="n">
         <v>2020</v>
@@ -9978,7 +9978,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B382" t="n">
         <v>2020</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B383" t="n">
         <v>2020</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B384" t="n">
         <v>2020</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B385" t="n">
         <v>2020</v>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B386" t="n">
         <v>2020</v>
@@ -10103,7 +10103,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B387" t="n">
         <v>2020</v>
@@ -10128,7 +10128,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B388" t="n">
         <v>2020</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B389" t="n">
         <v>2020</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B390" t="n">
         <v>2020</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B391" t="n">
         <v>2020</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B392" t="n">
         <v>2020</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B393" t="n">
         <v>2020</v>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B394" t="n">
         <v>2020</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B395" t="n">
         <v>2020</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B396" t="n">
         <v>2020</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B397" t="n">
         <v>2020</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B398" t="n">
         <v>2020</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B399" t="n">
         <v>2020</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B400" t="n">
         <v>2020</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B401" t="n">
         <v>2020</v>
@@ -10478,7 +10478,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B402" t="n">
         <v>2020</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B403" t="n">
         <v>2020</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B404" t="n">
         <v>2020</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B405" t="n">
         <v>2020</v>
@@ -10578,7 +10578,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B406" t="n">
         <v>2020</v>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B407" t="n">
         <v>2020</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B408" t="n">
         <v>2020</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B409" t="n">
         <v>2020</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B410" t="n">
         <v>2019</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B411" t="n">
         <v>2019</v>
@@ -10728,7 +10728,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B412" t="n">
         <v>2019</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B413" t="n">
         <v>2019</v>
@@ -10778,7 +10778,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B414" t="n">
         <v>2019</v>
@@ -10803,7 +10803,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B415" t="n">
         <v>2019</v>
@@ -10828,7 +10828,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B416" t="n">
         <v>2019</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B417" t="n">
         <v>2019</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B418" t="n">
         <v>2019</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B419" t="n">
         <v>2019</v>
@@ -10928,7 +10928,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B420" t="n">
         <v>2019</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B421" t="n">
         <v>2019</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B422" t="n">
         <v>2019</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B423" t="n">
         <v>2019</v>
@@ -11028,7 +11028,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B424" t="n">
         <v>2019</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B425" t="n">
         <v>2019</v>
@@ -11078,7 +11078,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B426" t="n">
         <v>2019</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B427" t="n">
         <v>2019</v>
@@ -11128,7 +11128,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B428" t="n">
         <v>2019</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B429" t="n">
         <v>2019</v>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B430" t="n">
         <v>2019</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B431" t="n">
         <v>2019</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B432" t="n">
         <v>2019</v>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B433" t="n">
         <v>2019</v>
@@ -11278,7 +11278,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B434" t="n">
         <v>2019</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B435" t="n">
         <v>2019</v>
@@ -11328,7 +11328,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B436" t="n">
         <v>2019</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B437" t="n">
         <v>2019</v>
@@ -11378,7 +11378,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B438" t="n">
         <v>2019</v>
@@ -11403,7 +11403,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B439" t="n">
         <v>2019</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B440" t="n">
         <v>2019</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B441" t="n">
         <v>2019</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B442" t="n">
         <v>2019</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B443" t="n">
         <v>2019</v>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B444" t="n">
         <v>2019</v>
@@ -11553,7 +11553,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B445" t="n">
         <v>2019</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B446" t="n">
         <v>2019</v>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B447" t="n">
         <v>2019</v>
@@ -11628,7 +11628,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B448" t="n">
         <v>2019</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B449" t="n">
         <v>2019</v>
@@ -11678,7 +11678,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B450" t="n">
         <v>2019</v>
@@ -11703,7 +11703,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B451" t="n">
         <v>2019</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B452" t="n">
         <v>2019</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B453" t="n">
         <v>2019</v>
@@ -11778,7 +11778,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B454" t="n">
         <v>2019</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B455" t="n">
         <v>2019</v>
@@ -11828,7 +11828,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B456" t="n">
         <v>2019</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B457" t="n">
         <v>2019</v>
@@ -11878,7 +11878,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B458" t="n">
         <v>2019</v>
@@ -11903,7 +11903,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B459" t="n">
         <v>2019</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B460" t="n">
         <v>2019</v>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B461" t="n">
         <v>2019</v>
@@ -11978,7 +11978,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B462" t="n">
         <v>2019</v>
@@ -12003,7 +12003,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B463" t="n">
         <v>2019</v>
@@ -12028,7 +12028,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B464" t="n">
         <v>2019</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B465" t="n">
         <v>2019</v>
@@ -12078,7 +12078,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B466" t="n">
         <v>2019</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B467" t="n">
         <v>2019</v>
@@ -12128,7 +12128,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B468" t="n">
         <v>2019</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B469" t="n">
         <v>2019</v>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B470" t="n">
         <v>2019</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B471" t="n">
         <v>2019</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B472" t="n">
         <v>2019</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B473" t="n">
         <v>2019</v>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B474" t="n">
         <v>2019</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B475" t="n">
         <v>2019</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B476" t="n">
         <v>2019</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B477" t="n">
         <v>2019</v>
@@ -12378,7 +12378,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B478" t="n">
         <v>2019</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B479" t="n">
         <v>2019</v>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B480" t="n">
         <v>2019</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B481" t="n">
         <v>2019</v>
@@ -12478,7 +12478,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B482" t="n">
         <v>2019</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B483" t="n">
         <v>2019</v>
@@ -12528,7 +12528,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B484" t="n">
         <v>2019</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B485" t="n">
         <v>2019</v>
@@ -12578,7 +12578,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B486" t="n">
         <v>2019</v>
@@ -12603,7 +12603,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B487" t="n">
         <v>2019</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B488" t="n">
         <v>2019</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B489" t="n">
         <v>2019</v>
@@ -12678,7 +12678,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B490" t="n">
         <v>2019</v>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B491" t="n">
         <v>2019</v>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B492" t="n">
         <v>2019</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B493" t="n">
         <v>2019</v>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B494" t="n">
         <v>2019</v>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B495" t="n">
         <v>2019</v>
@@ -12828,7 +12828,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B496" t="n">
         <v>2019</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B497" t="n">
         <v>2019</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B498" t="n">
         <v>2019</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B499" t="n">
         <v>2019</v>
@@ -12928,7 +12928,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B500" t="n">
         <v>2019</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B501" t="n">
         <v>2019</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B502" t="n">
         <v>2019</v>
@@ -13003,7 +13003,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B503" t="n">
         <v>2019</v>
@@ -13028,7 +13028,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B504" t="n">
         <v>2019</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B505" t="n">
         <v>2019</v>
@@ -13078,7 +13078,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B506" t="n">
         <v>2018</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B507" t="n">
         <v>2018</v>
@@ -13128,7 +13128,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B508" t="n">
         <v>2018</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B509" t="n">
         <v>2018</v>
@@ -13178,7 +13178,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B510" t="n">
         <v>2018</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B511" t="n">
         <v>2018</v>
@@ -13228,7 +13228,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B512" t="n">
         <v>2018</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B513" t="n">
         <v>2018</v>
@@ -13278,7 +13278,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B514" t="n">
         <v>2018</v>
@@ -13303,7 +13303,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B515" t="n">
         <v>2018</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B516" t="n">
         <v>2018</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B517" t="n">
         <v>2018</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B518" t="n">
         <v>2018</v>
@@ -13403,7 +13403,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B519" t="n">
         <v>2018</v>
@@ -13428,7 +13428,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B520" t="n">
         <v>2018</v>
@@ -13453,7 +13453,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B521" t="n">
         <v>2018</v>
@@ -13478,7 +13478,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B522" t="n">
         <v>2018</v>
@@ -13503,7 +13503,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B523" t="n">
         <v>2018</v>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B524" t="n">
         <v>2018</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B525" t="n">
         <v>2018</v>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B526" t="n">
         <v>2018</v>
@@ -13603,7 +13603,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B527" t="n">
         <v>2018</v>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B528" t="n">
         <v>2018</v>
@@ -13653,7 +13653,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B529" t="n">
         <v>2018</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B530" t="n">
         <v>2018</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B531" t="n">
         <v>2018</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B532" t="n">
         <v>2018</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B533" t="n">
         <v>2018</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B534" t="n">
         <v>2018</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B535" t="n">
         <v>2018</v>
@@ -13828,7 +13828,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B536" t="n">
         <v>2018</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B537" t="n">
         <v>2018</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B538" t="n">
         <v>2018</v>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B539" t="n">
         <v>2018</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B540" t="n">
         <v>2018</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B541" t="n">
         <v>2018</v>
@@ -13978,7 +13978,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B542" t="n">
         <v>2018</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B543" t="n">
         <v>2018</v>
@@ -14028,7 +14028,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B544" t="n">
         <v>2018</v>
@@ -14053,7 +14053,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B545" t="n">
         <v>2018</v>
@@ -14078,7 +14078,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B546" t="n">
         <v>2018</v>
@@ -14103,7 +14103,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B547" t="n">
         <v>2018</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B548" t="n">
         <v>2018</v>
@@ -14153,7 +14153,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B549" t="n">
         <v>2018</v>
@@ -14178,7 +14178,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B550" t="n">
         <v>2018</v>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B551" t="n">
         <v>2018</v>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B552" t="n">
         <v>2018</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B553" t="n">
         <v>2018</v>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B554" t="n">
         <v>2018</v>
@@ -14303,7 +14303,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B555" t="n">
         <v>2018</v>
@@ -14328,7 +14328,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B556" t="n">
         <v>2018</v>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B557" t="n">
         <v>2018</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B558" t="n">
         <v>2018</v>
@@ -14403,7 +14403,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B559" t="n">
         <v>2018</v>
@@ -14428,7 +14428,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B560" t="n">
         <v>2018</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B561" t="n">
         <v>2018</v>
@@ -14478,7 +14478,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B562" t="n">
         <v>2018</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B563" t="n">
         <v>2018</v>
@@ -14526,7 +14526,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B564" t="n">
         <v>2018</v>
@@ -14551,7 +14551,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B565" t="n">
         <v>2018</v>
@@ -14576,7 +14576,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B566" t="n">
         <v>2018</v>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B567" t="n">
         <v>2018</v>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B568" t="n">
         <v>2018</v>
@@ -14649,7 +14649,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B569" t="n">
         <v>2018</v>
@@ -14674,7 +14674,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B570" t="n">
         <v>2018</v>
@@ -14699,7 +14699,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B571" t="n">
         <v>2018</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B572" t="n">
         <v>2018</v>
@@ -14749,7 +14749,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B573" t="n">
         <v>2018</v>
@@ -14774,7 +14774,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B574" t="n">
         <v>2018</v>
@@ -14799,7 +14799,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B575" t="n">
         <v>2018</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B576" t="n">
         <v>2018</v>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B577" t="n">
         <v>2018</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B578" t="n">
         <v>2018</v>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B579" t="n">
         <v>2018</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B580" t="n">
         <v>2018</v>
@@ -14949,7 +14949,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B581" t="n">
         <v>2018</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B582" t="n">
         <v>2018</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B583" t="n">
         <v>2018</v>
@@ -15024,7 +15024,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B584" t="n">
         <v>2018</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B585" t="n">
         <v>2018</v>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B586" t="n">
         <v>2018</v>
@@ -15099,7 +15099,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B587" t="n">
         <v>2018</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B588" t="n">
         <v>2018</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B589" t="n">
         <v>2018</v>
@@ -15174,7 +15174,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B590" t="n">
         <v>2018</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B591" t="n">
         <v>2018</v>
@@ -15224,7 +15224,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B592" t="n">
         <v>2018</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B593" t="n">
         <v>2018</v>
@@ -15274,7 +15274,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B594" t="n">
         <v>2018</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B595" t="n">
         <v>2018</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B596" t="n">
         <v>2018</v>
@@ -15349,7 +15349,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B597" t="n">
         <v>2018</v>
@@ -15374,7 +15374,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B598" t="n">
         <v>2018</v>
@@ -15399,7 +15399,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B599" t="n">
         <v>2018</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B600" t="n">
         <v>2018</v>
@@ -15449,7 +15449,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B601" t="n">
         <v>2018</v>
@@ -15474,7 +15474,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B602" t="n">
         <v>2017</v>
@@ -15499,7 +15499,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B603" t="n">
         <v>2017</v>
@@ -15524,7 +15524,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B604" t="n">
         <v>2017</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B605" t="n">
         <v>2017</v>
@@ -15574,7 +15574,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B606" t="n">
         <v>2017</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B607" t="n">
         <v>2017</v>
@@ -15624,7 +15624,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B608" t="n">
         <v>2017</v>
@@ -15649,7 +15649,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B609" t="n">
         <v>2017</v>
@@ -15674,7 +15674,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B610" t="n">
         <v>2017</v>
@@ -15699,7 +15699,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B611" t="n">
         <v>2017</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B612" t="n">
         <v>2017</v>
@@ -15749,7 +15749,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B613" t="n">
         <v>2017</v>
@@ -15774,7 +15774,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B614" t="n">
         <v>2017</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B615" t="n">
         <v>2017</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B616" t="n">
         <v>2017</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B617" t="n">
         <v>2017</v>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B618" t="n">
         <v>2017</v>
@@ -15899,7 +15899,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B619" t="n">
         <v>2017</v>
@@ -15924,7 +15924,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B620" t="n">
         <v>2017</v>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B621" t="n">
         <v>2017</v>
@@ -15974,7 +15974,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B622" t="n">
         <v>2017</v>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B623" t="n">
         <v>2017</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B624" t="n">
         <v>2017</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B625" t="n">
         <v>2017</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B626" t="n">
         <v>2017</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B627" t="n">
         <v>2017</v>
@@ -16124,7 +16124,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B628" t="n">
         <v>2017</v>
@@ -16149,7 +16149,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B629" t="n">
         <v>2017</v>
@@ -16174,7 +16174,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B630" t="n">
         <v>2017</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B631" t="n">
         <v>2017</v>
@@ -16224,7 +16224,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B632" t="n">
         <v>2017</v>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B633" t="n">
         <v>2017</v>
@@ -16274,7 +16274,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B634" t="n">
         <v>2017</v>
@@ -16299,7 +16299,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B635" t="n">
         <v>2017</v>
@@ -16324,7 +16324,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B636" t="n">
         <v>2017</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B637" t="n">
         <v>2017</v>
@@ -16374,7 +16374,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B638" t="n">
         <v>2017</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B639" t="n">
         <v>2017</v>
@@ -16424,7 +16424,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B640" t="n">
         <v>2017</v>
@@ -16449,7 +16449,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B641" t="n">
         <v>2017</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B642" t="n">
         <v>2017</v>
@@ -16499,7 +16499,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B643" t="n">
         <v>2017</v>
@@ -16524,7 +16524,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B644" t="n">
         <v>2017</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B645" t="n">
         <v>2017</v>
@@ -16574,7 +16574,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B646" t="n">
         <v>2017</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B647" t="n">
         <v>2017</v>
@@ -16624,7 +16624,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B648" t="n">
         <v>2017</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B649" t="n">
         <v>2017</v>
@@ -16674,7 +16674,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B650" t="n">
         <v>2017</v>
@@ -16699,7 +16699,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B651" t="n">
         <v>2017</v>
@@ -16724,7 +16724,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B652" t="n">
         <v>2017</v>
@@ -16749,7 +16749,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B653" t="n">
         <v>2017</v>
@@ -16774,7 +16774,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B654" t="n">
         <v>2017</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B655" t="n">
         <v>2017</v>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B656" t="n">
         <v>2017</v>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B657" t="n">
         <v>2017</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B658" t="n">
         <v>2017</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B659" t="n">
         <v>2017</v>
@@ -16924,7 +16924,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B660" t="n">
         <v>2017</v>
@@ -16949,7 +16949,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B661" t="n">
         <v>2017</v>
@@ -16974,7 +16974,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B662" t="n">
         <v>2017</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B663" t="n">
         <v>2017</v>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B664" t="n">
         <v>2017</v>
@@ -17049,7 +17049,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B665" t="n">
         <v>2017</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B666" t="n">
         <v>2017</v>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B667" t="n">
         <v>2017</v>
@@ -17124,7 +17124,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B668" t="n">
         <v>2017</v>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B669" t="n">
         <v>2017</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B670" t="n">
         <v>2017</v>
@@ -17199,7 +17199,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B671" t="n">
         <v>2017</v>
@@ -17224,7 +17224,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B672" t="n">
         <v>2017</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B673" t="n">
         <v>2017</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B674" t="n">
         <v>2017</v>
@@ -17299,7 +17299,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B675" t="n">
         <v>2017</v>
@@ -17324,7 +17324,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B676" t="n">
         <v>2017</v>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B677" t="n">
         <v>2017</v>
@@ -17374,7 +17374,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B678" t="n">
         <v>2017</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B679" t="n">
         <v>2017</v>
@@ -17424,7 +17424,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B680" t="n">
         <v>2017</v>
@@ -17449,7 +17449,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B681" t="n">
         <v>2017</v>
@@ -17474,7 +17474,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B682" t="n">
         <v>2017</v>
@@ -17499,7 +17499,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B683" t="n">
         <v>2017</v>
@@ -17524,7 +17524,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B684" t="n">
         <v>2017</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B685" t="n">
         <v>2017</v>
@@ -17574,7 +17574,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B686" t="n">
         <v>2017</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B687" t="n">
         <v>2017</v>
@@ -17624,7 +17624,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B688" t="n">
         <v>2017</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B689" t="n">
         <v>2017</v>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B690" t="n">
         <v>2017</v>
@@ -17699,7 +17699,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B691" t="n">
         <v>2017</v>
@@ -17724,7 +17724,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B692" t="n">
         <v>2017</v>
@@ -17749,7 +17749,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B693" t="n">
         <v>2017</v>
@@ -17774,7 +17774,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B694" t="n">
         <v>2017</v>
@@ -17799,7 +17799,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B695" t="n">
         <v>2017</v>
@@ -17824,7 +17824,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B696" t="n">
         <v>2017</v>
@@ -17849,7 +17849,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B697" t="n">
         <v>2017</v>
@@ -17874,7 +17874,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B698" t="n">
         <v>2016</v>
@@ -17899,7 +17899,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B699" t="n">
         <v>2016</v>
@@ -17924,7 +17924,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B700" t="n">
         <v>2016</v>
@@ -17949,7 +17949,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B701" t="n">
         <v>2016</v>
@@ -17974,7 +17974,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B702" t="n">
         <v>2016</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B703" t="n">
         <v>2016</v>
@@ -18024,7 +18024,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B704" t="n">
         <v>2016</v>
@@ -18049,7 +18049,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B705" t="n">
         <v>2016</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B706" t="n">
         <v>2016</v>
@@ -18099,7 +18099,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B707" t="n">
         <v>2016</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B708" t="n">
         <v>2016</v>
@@ -18149,7 +18149,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B709" t="n">
         <v>2016</v>
@@ -18174,7 +18174,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B710" t="n">
         <v>2016</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B711" t="n">
         <v>2016</v>
@@ -18224,7 +18224,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B712" t="n">
         <v>2016</v>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B713" t="n">
         <v>2016</v>
@@ -18274,7 +18274,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B714" t="n">
         <v>2016</v>
@@ -18299,7 +18299,7 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B715" t="n">
         <v>2016</v>
@@ -18324,7 +18324,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B716" t="n">
         <v>2016</v>
@@ -18349,7 +18349,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B717" t="n">
         <v>2016</v>
@@ -18374,7 +18374,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B718" t="n">
         <v>2016</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B719" t="n">
         <v>2016</v>
@@ -18424,7 +18424,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B720" t="n">
         <v>2016</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B721" t="n">
         <v>2016</v>
@@ -18474,7 +18474,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B722" t="n">
         <v>2016</v>
@@ -18499,7 +18499,7 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B723" t="n">
         <v>2016</v>
@@ -18524,7 +18524,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B724" t="n">
         <v>2016</v>
@@ -18549,7 +18549,7 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B725" t="n">
         <v>2016</v>
@@ -18574,7 +18574,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B726" t="n">
         <v>2016</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B727" t="n">
         <v>2016</v>
@@ -18624,7 +18624,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B728" t="n">
         <v>2016</v>
@@ -18649,7 +18649,7 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B729" t="n">
         <v>2016</v>
@@ -18674,7 +18674,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B730" t="n">
         <v>2016</v>
@@ -18699,7 +18699,7 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B731" t="n">
         <v>2016</v>
@@ -18724,7 +18724,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B732" t="n">
         <v>2016</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B733" t="n">
         <v>2016</v>
@@ -18774,7 +18774,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B734" t="n">
         <v>2016</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B735" t="n">
         <v>2016</v>
@@ -18824,7 +18824,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B736" t="n">
         <v>2016</v>
@@ -18849,7 +18849,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B737" t="n">
         <v>2016</v>
@@ -18874,7 +18874,7 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B738" t="n">
         <v>2016</v>
@@ -18899,7 +18899,7 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B739" t="n">
         <v>2016</v>
@@ -18924,7 +18924,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B740" t="n">
         <v>2016</v>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B741" t="n">
         <v>2016</v>
@@ -18974,7 +18974,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B742" t="n">
         <v>2016</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B743" t="n">
         <v>2016</v>
@@ -19024,7 +19024,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B744" t="n">
         <v>2016</v>
@@ -19049,7 +19049,7 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B745" t="n">
         <v>2016</v>
@@ -19074,7 +19074,7 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B746" t="n">
         <v>2016</v>
@@ -19099,7 +19099,7 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B747" t="n">
         <v>2016</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B748" t="n">
         <v>2016</v>
@@ -19149,7 +19149,7 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B749" t="n">
         <v>2016</v>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B750" t="n">
         <v>2016</v>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B751" t="n">
         <v>2016</v>
@@ -19224,7 +19224,7 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B752" t="n">
         <v>2016</v>
@@ -19249,7 +19249,7 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B753" t="n">
         <v>2016</v>
@@ -19274,7 +19274,7 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B754" t="n">
         <v>2016</v>
@@ -19299,7 +19299,7 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B755" t="n">
         <v>2016</v>
@@ -19324,7 +19324,7 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B756" t="n">
         <v>2016</v>
@@ -19349,7 +19349,7 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B757" t="n">
         <v>2016</v>
@@ -19374,7 +19374,7 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B758" t="n">
         <v>2016</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B759" t="n">
         <v>2016</v>
@@ -19424,7 +19424,7 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B760" t="n">
         <v>2016</v>
@@ -19449,7 +19449,7 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B761" t="n">
         <v>2016</v>
@@ -19474,7 +19474,7 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B762" t="n">
         <v>2016</v>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B763" t="n">
         <v>2016</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B764" t="n">
         <v>2016</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B765" t="n">
         <v>2016</v>
@@ -19574,7 +19574,7 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B766" t="n">
         <v>2016</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B767" t="n">
         <v>2016</v>
@@ -19624,7 +19624,7 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B768" t="n">
         <v>2016</v>
@@ -19649,7 +19649,7 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B769" t="n">
         <v>2016</v>
@@ -19674,7 +19674,7 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B770" t="n">
         <v>2016</v>
@@ -19699,7 +19699,7 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B771" t="n">
         <v>2016</v>
@@ -19724,7 +19724,7 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B772" t="n">
         <v>2016</v>
@@ -19749,7 +19749,7 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B773" t="n">
         <v>2016</v>
@@ -19774,7 +19774,7 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B774" t="n">
         <v>2016</v>
@@ -19799,7 +19799,7 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B775" t="n">
         <v>2016</v>
@@ -19824,7 +19824,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B776" t="n">
         <v>2016</v>
@@ -19849,7 +19849,7 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B777" t="n">
         <v>2016</v>
@@ -19874,7 +19874,7 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B778" t="n">
         <v>2016</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B779" t="n">
         <v>2016</v>
@@ -19924,7 +19924,7 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B780" t="n">
         <v>2016</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B781" t="n">
         <v>2016</v>
@@ -19974,7 +19974,7 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B782" t="n">
         <v>2016</v>
@@ -19999,7 +19999,7 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B783" t="n">
         <v>2016</v>
@@ -20024,7 +20024,7 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B784" t="n">
         <v>2016</v>
@@ -20049,7 +20049,7 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B785" t="n">
         <v>2016</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B786" t="n">
         <v>2016</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B787" t="n">
         <v>2016</v>
@@ -20124,7 +20124,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B788" t="n">
         <v>2016</v>
@@ -20149,7 +20149,7 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B789" t="n">
         <v>2016</v>
@@ -20174,7 +20174,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B790" t="n">
         <v>2016</v>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B791" t="n">
         <v>2016</v>
@@ -20224,7 +20224,7 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B792" t="n">
         <v>2016</v>
@@ -20249,7 +20249,7 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B793" t="n">
         <v>2016</v>
@@ -20274,7 +20274,7 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B794" t="n">
         <v>2015</v>
@@ -20299,7 +20299,7 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B795" t="n">
         <v>2015</v>
@@ -20324,7 +20324,7 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B796" t="n">
         <v>2015</v>
@@ -20349,7 +20349,7 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B797" t="n">
         <v>2015</v>
@@ -20374,7 +20374,7 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B798" t="n">
         <v>2015</v>
@@ -20399,7 +20399,7 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B799" t="n">
         <v>2015</v>
@@ -20424,7 +20424,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B800" t="n">
         <v>2015</v>
@@ -20449,7 +20449,7 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B801" t="n">
         <v>2015</v>
@@ -20474,7 +20474,7 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B802" t="n">
         <v>2015</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B803" t="n">
         <v>2015</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B804" t="n">
         <v>2015</v>
@@ -20549,7 +20549,7 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B805" t="n">
         <v>2015</v>
@@ -20574,7 +20574,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B806" t="n">
         <v>2015</v>
@@ -20599,7 +20599,7 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B807" t="n">
         <v>2015</v>
@@ -20624,7 +20624,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B808" t="n">
         <v>2015</v>
@@ -20649,7 +20649,7 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B809" t="n">
         <v>2015</v>
@@ -20674,7 +20674,7 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B810" t="n">
         <v>2015</v>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B811" t="n">
         <v>2015</v>
@@ -20724,7 +20724,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B812" t="n">
         <v>2015</v>
@@ -20749,7 +20749,7 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B813" t="n">
         <v>2015</v>
@@ -20774,7 +20774,7 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B814" t="n">
         <v>2015</v>
@@ -20799,7 +20799,7 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B815" t="n">
         <v>2015</v>
@@ -20824,7 +20824,7 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B816" t="n">
         <v>2015</v>
@@ -20849,7 +20849,7 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B817" t="n">
         <v>2015</v>
@@ -20874,7 +20874,7 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B818" t="n">
         <v>2015</v>
@@ -20899,7 +20899,7 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B819" t="n">
         <v>2015</v>
@@ -20924,7 +20924,7 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B820" t="n">
         <v>2015</v>
@@ -20949,7 +20949,7 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B821" t="n">
         <v>2015</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B822" t="n">
         <v>2015</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B823" t="n">
         <v>2015</v>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B824" t="n">
         <v>2015</v>
@@ -21049,7 +21049,7 @@
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B825" t="n">
         <v>2015</v>
@@ -21074,7 +21074,7 @@
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B826" t="n">
         <v>2015</v>
@@ -21099,7 +21099,7 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B827" t="n">
         <v>2015</v>
@@ -21124,7 +21124,7 @@
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B828" t="n">
         <v>2015</v>
@@ -21149,7 +21149,7 @@
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B829" t="n">
         <v>2015</v>
@@ -21174,7 +21174,7 @@
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B830" t="n">
         <v>2015</v>
@@ -21199,7 +21199,7 @@
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B831" t="n">
         <v>2015</v>
@@ -21224,7 +21224,7 @@
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B832" t="n">
         <v>2015</v>
@@ -21249,7 +21249,7 @@
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B833" t="n">
         <v>2015</v>
@@ -21274,7 +21274,7 @@
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B834" t="n">
         <v>2015</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B835" t="n">
         <v>2015</v>
@@ -21324,7 +21324,7 @@
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B836" t="n">
         <v>2015</v>
@@ -21349,7 +21349,7 @@
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B837" t="n">
         <v>2015</v>
@@ -21374,7 +21374,7 @@
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B838" t="n">
         <v>2015</v>
@@ -21399,7 +21399,7 @@
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B839" t="n">
         <v>2015</v>
@@ -21424,7 +21424,7 @@
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B840" t="n">
         <v>2015</v>
@@ -21449,7 +21449,7 @@
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B841" t="n">
         <v>2015</v>
@@ -21474,7 +21474,7 @@
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B842" t="n">
         <v>2015</v>
@@ -21499,7 +21499,7 @@
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B843" t="n">
         <v>2015</v>
@@ -21524,7 +21524,7 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B844" t="n">
         <v>2015</v>
@@ -21549,7 +21549,7 @@
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B845" t="n">
         <v>2015</v>
@@ -21574,7 +21574,7 @@
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B846" t="n">
         <v>2015</v>
@@ -21599,7 +21599,7 @@
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B847" t="n">
         <v>2015</v>
@@ -21624,7 +21624,7 @@
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B848" t="n">
         <v>2015</v>
@@ -21649,7 +21649,7 @@
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B849" t="n">
         <v>2015</v>
@@ -21674,7 +21674,7 @@
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B850" t="n">
         <v>2015</v>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B851" t="n">
         <v>2015</v>
@@ -21724,7 +21724,7 @@
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B852" t="n">
         <v>2015</v>
@@ -21749,7 +21749,7 @@
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B853" t="n">
         <v>2015</v>
@@ -21774,7 +21774,7 @@
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B854" t="n">
         <v>2015</v>
@@ -21799,7 +21799,7 @@
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B855" t="n">
         <v>2015</v>
@@ -21824,7 +21824,7 @@
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B856" t="n">
         <v>2015</v>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B857" t="n">
         <v>2015</v>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B858" t="n">
         <v>2015</v>
@@ -21899,7 +21899,7 @@
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B859" t="n">
         <v>2015</v>
@@ -21924,7 +21924,7 @@
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B860" t="n">
         <v>2015</v>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B861" t="n">
         <v>2015</v>
@@ -21974,7 +21974,7 @@
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B862" t="n">
         <v>2015</v>
@@ -21999,7 +21999,7 @@
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B863" t="n">
         <v>2015</v>
@@ -22024,7 +22024,7 @@
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B864" t="n">
         <v>2015</v>
@@ -22049,7 +22049,7 @@
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B865" t="n">
         <v>2015</v>
@@ -22074,7 +22074,7 @@
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B866" t="n">
         <v>2015</v>
@@ -22099,7 +22099,7 @@
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B867" t="n">
         <v>2015</v>
@@ -22124,7 +22124,7 @@
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B868" t="n">
         <v>2015</v>
@@ -22149,7 +22149,7 @@
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B869" t="n">
         <v>2015</v>
@@ -22174,7 +22174,7 @@
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B870" t="n">
         <v>2015</v>
@@ -22199,7 +22199,7 @@
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B871" t="n">
         <v>2015</v>
@@ -22224,7 +22224,7 @@
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B872" t="n">
         <v>2015</v>
@@ -22249,7 +22249,7 @@
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B873" t="n">
         <v>2015</v>
@@ -22274,7 +22274,7 @@
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B874" t="n">
         <v>2015</v>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B875" t="n">
         <v>2015</v>
@@ -22324,7 +22324,7 @@
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B876" t="n">
         <v>2015</v>
@@ -22349,7 +22349,7 @@
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B877" t="n">
         <v>2015</v>
@@ -22374,7 +22374,7 @@
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B878" t="n">
         <v>2015</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B879" t="n">
         <v>2015</v>
@@ -22424,7 +22424,7 @@
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B880" t="n">
         <v>2015</v>
@@ -22449,7 +22449,7 @@
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B881" t="n">
         <v>2015</v>
@@ -22474,7 +22474,7 @@
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B882" t="n">
         <v>2015</v>
@@ -22499,7 +22499,7 @@
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B883" t="n">
         <v>2015</v>
@@ -22524,7 +22524,7 @@
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B884" t="n">
         <v>2015</v>
@@ -22549,7 +22549,7 @@
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B885" t="n">
         <v>2015</v>
@@ -22574,7 +22574,7 @@
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B886" t="n">
         <v>2015</v>
@@ -22599,7 +22599,7 @@
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B887" t="n">
         <v>2015</v>
@@ -22624,7 +22624,7 @@
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B888" t="n">
         <v>2015</v>
@@ -22649,7 +22649,7 @@
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B889" t="n">
         <v>2015</v>
@@ -22674,7 +22674,7 @@
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B890" t="n">
         <v>2014</v>
@@ -22699,7 +22699,7 @@
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B891" t="n">
         <v>2014</v>
@@ -22724,7 +22724,7 @@
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B892" t="n">
         <v>2014</v>
@@ -22749,7 +22749,7 @@
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B893" t="n">
         <v>2014</v>
@@ -22774,7 +22774,7 @@
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B894" t="n">
         <v>2014</v>
@@ -22799,7 +22799,7 @@
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B895" t="n">
         <v>2014</v>
@@ -22824,7 +22824,7 @@
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B896" t="n">
         <v>2014</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B897" t="n">
         <v>2014</v>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B898" t="n">
         <v>2014</v>
@@ -22899,7 +22899,7 @@
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B899" t="n">
         <v>2014</v>
@@ -22924,7 +22924,7 @@
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B900" t="n">
         <v>2014</v>
@@ -22949,7 +22949,7 @@
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B901" t="n">
         <v>2014</v>
@@ -22974,7 +22974,7 @@
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B902" t="n">
         <v>2014</v>
@@ -22999,7 +22999,7 @@
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B903" t="n">
         <v>2014</v>
@@ -23024,7 +23024,7 @@
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B904" t="n">
         <v>2014</v>
@@ -23049,7 +23049,7 @@
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B905" t="n">
         <v>2014</v>
@@ -23074,7 +23074,7 @@
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B906" t="n">
         <v>2014</v>
@@ -23099,7 +23099,7 @@
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B907" t="n">
         <v>2014</v>
@@ -23124,7 +23124,7 @@
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B908" t="n">
         <v>2014</v>
@@ -23149,7 +23149,7 @@
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B909" t="n">
         <v>2014</v>
@@ -23174,7 +23174,7 @@
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B910" t="n">
         <v>2014</v>
@@ -23199,7 +23199,7 @@
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B911" t="n">
         <v>2014</v>
@@ -23224,7 +23224,7 @@
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B912" t="n">
         <v>2014</v>
@@ -23249,7 +23249,7 @@
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B913" t="n">
         <v>2014</v>
@@ -23274,7 +23274,7 @@
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B914" t="n">
         <v>2014</v>
@@ -23299,7 +23299,7 @@
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B915" t="n">
         <v>2014</v>
@@ -23324,7 +23324,7 @@
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B916" t="n">
         <v>2014</v>
@@ -23349,7 +23349,7 @@
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B917" t="n">
         <v>2014</v>
@@ -23374,7 +23374,7 @@
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B918" t="n">
         <v>2014</v>
@@ -23399,7 +23399,7 @@
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B919" t="n">
         <v>2014</v>
@@ -23424,7 +23424,7 @@
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B920" t="n">
         <v>2014</v>
@@ -23449,7 +23449,7 @@
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B921" t="n">
         <v>2014</v>
@@ -23474,7 +23474,7 @@
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B922" t="n">
         <v>2014</v>
@@ -23499,7 +23499,7 @@
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B923" t="n">
         <v>2014</v>
@@ -23524,7 +23524,7 @@
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B924" t="n">
         <v>2014</v>
@@ -23549,7 +23549,7 @@
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B925" t="n">
         <v>2014</v>
@@ -23574,7 +23574,7 @@
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B926" t="n">
         <v>2014</v>
@@ -23599,7 +23599,7 @@
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B927" t="n">
         <v>2014</v>
@@ -23624,7 +23624,7 @@
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B928" t="n">
         <v>2014</v>
@@ -23649,7 +23649,7 @@
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B929" t="n">
         <v>2014</v>
@@ -23674,7 +23674,7 @@
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B930" t="n">
         <v>2014</v>
@@ -23699,7 +23699,7 @@
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B931" t="n">
         <v>2014</v>
@@ -23724,7 +23724,7 @@
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B932" t="n">
         <v>2014</v>
@@ -23749,7 +23749,7 @@
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B933" t="n">
         <v>2014</v>
@@ -23774,7 +23774,7 @@
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B934" t="n">
         <v>2014</v>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B935" t="n">
         <v>2014</v>
@@ -23824,7 +23824,7 @@
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B936" t="n">
         <v>2014</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B937" t="n">
         <v>2014</v>
@@ -23874,7 +23874,7 @@
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B938" t="n">
         <v>2014</v>
@@ -23899,7 +23899,7 @@
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B939" t="n">
         <v>2014</v>
@@ -23924,7 +23924,7 @@
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B940" t="n">
         <v>2014</v>
@@ -23949,7 +23949,7 @@
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B941" t="n">
         <v>2014</v>
@@ -23974,7 +23974,7 @@
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B942" t="n">
         <v>2014</v>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B943" t="n">
         <v>2014</v>
@@ -24024,7 +24024,7 @@
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B944" t="n">
         <v>2014</v>
@@ -24049,7 +24049,7 @@
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B945" t="n">
         <v>2014</v>
@@ -24074,7 +24074,7 @@
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B946" t="n">
         <v>2014</v>
@@ -24099,7 +24099,7 @@
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B947" t="n">
         <v>2014</v>
@@ -24124,7 +24124,7 @@
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B948" t="n">
         <v>2014</v>
@@ -24149,7 +24149,7 @@
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B949" t="n">
         <v>2014</v>
@@ -24174,7 +24174,7 @@
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B950" t="n">
         <v>2014</v>
@@ -24199,7 +24199,7 @@
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B951" t="n">
         <v>2014</v>
@@ -24224,7 +24224,7 @@
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B952" t="n">
         <v>2014</v>
@@ -24249,7 +24249,7 @@
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B953" t="n">
         <v>2014</v>
@@ -24274,7 +24274,7 @@
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B954" t="n">
         <v>2014</v>
@@ -24299,7 +24299,7 @@
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B955" t="n">
         <v>2014</v>
@@ -24324,7 +24324,7 @@
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B956" t="n">
         <v>2014</v>
@@ -24349,7 +24349,7 @@
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B957" t="n">
         <v>2014</v>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B958" t="n">
         <v>2014</v>
@@ -24399,7 +24399,7 @@
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B959" t="n">
         <v>2014</v>
@@ -24424,7 +24424,7 @@
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B960" t="n">
         <v>2014</v>
@@ -24449,7 +24449,7 @@
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B961" t="n">
         <v>2014</v>
@@ -24474,7 +24474,7 @@
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B962" t="n">
         <v>2014</v>
@@ -24499,7 +24499,7 @@
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B963" t="n">
         <v>2014</v>
@@ -24524,7 +24524,7 @@
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B964" t="n">
         <v>2014</v>
@@ -24549,7 +24549,7 @@
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B965" t="n">
         <v>2014</v>
@@ -24574,7 +24574,7 @@
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B966" t="n">
         <v>2014</v>
@@ -24599,7 +24599,7 @@
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B967" t="n">
         <v>2014</v>
@@ -24624,7 +24624,7 @@
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B968" t="n">
         <v>2014</v>
@@ -24649,7 +24649,7 @@
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B969" t="n">
         <v>2014</v>
@@ -24674,7 +24674,7 @@
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B970" t="n">
         <v>2014</v>
@@ -24699,7 +24699,7 @@
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B971" t="n">
         <v>2014</v>
@@ -24724,7 +24724,7 @@
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B972" t="n">
         <v>2014</v>
@@ -24749,7 +24749,7 @@
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B973" t="n">
         <v>2014</v>
@@ -24774,7 +24774,7 @@
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B974" t="n">
         <v>2014</v>
@@ -24799,7 +24799,7 @@
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B975" t="n">
         <v>2014</v>
@@ -24824,7 +24824,7 @@
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B976" t="n">
         <v>2014</v>
@@ -24849,7 +24849,7 @@
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B977" t="n">
         <v>2014</v>
@@ -24874,7 +24874,7 @@
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B978" t="n">
         <v>2014</v>
@@ -24899,7 +24899,7 @@
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B979" t="n">
         <v>2014</v>
@@ -24924,7 +24924,7 @@
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B980" t="n">
         <v>2014</v>
@@ -24949,7 +24949,7 @@
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B981" t="n">
         <v>2014</v>
@@ -24974,7 +24974,7 @@
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B982" t="n">
         <v>2014</v>
@@ -24999,7 +24999,7 @@
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B983" t="n">
         <v>2014</v>
@@ -25024,7 +25024,7 @@
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B984" t="n">
         <v>2014</v>
@@ -25049,7 +25049,7 @@
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B985" t="n">
         <v>2014</v>
